--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\UiPath\CREDIT SWITCH\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPA_ROBOT1\Documents\UiPath\CreditSwitch\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794A88C8-CC57-457B-81C8-EB128AB8044E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDB3BD5-BB0F-4FD8-90E6-56585892342E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{533A41B4-224A-4779-A5C7-3E4B46218A92}"/>
+    <workbookView xWindow="1380" yWindow="1344" windowWidth="17280" windowHeight="8916" xr2:uid="{533A41B4-224A-4779-A5C7-3E4B46218A92}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -152,18 +152,9 @@
     <t>https://rpt.creditswitch.com/login</t>
   </si>
   <si>
-    <t>C:\Users\USER\Downloads</t>
-  </si>
-  <si>
     <t>sbakare@wajesmart.com</t>
   </si>
   <si>
-    <t>C:\Users\USER\Documents\Bot_WorkDirectory\CreditSwitch_Reconcillation\CreditSwitch_ExternalConfig.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\USER\Documents\Bot_WorkDirectory</t>
-  </si>
-  <si>
     <t>https://sterlingbankng.sharepoint.com/teams/cpc/ebanking</t>
   </si>
   <si>
@@ -174,13 +165,25 @@
   </si>
   <si>
     <t>Sharepoint_Credentials</t>
+  </si>
+  <si>
+    <t>C:\Users\RPA_ROBOT1\Documents\CreditSwitch_Reconcillation\CreditSwitch_ExternalConfig.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\RPA_ROBOT1\Documents</t>
+  </si>
+  <si>
+    <t>C:\Users\RPA_ROBOT1\Downloads</t>
+  </si>
+  <si>
+    <t>Rparobot1@sterling.ng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +220,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -241,8 +252,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -263,9 +275,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -570,7 +583,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -580,18 +593,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6036370E-F23C-4C8F-95FD-ABF3B0AE06C5}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="40.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.453125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="37.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -602,14 +615,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>34</v>
       </c>
@@ -618,23 +631,23 @@
       </c>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C4" s="7"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -642,14 +655,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -657,7 +670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -665,10 +678,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C13" s="6"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -676,7 +689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -684,62 +697,65 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -747,17 +763,20 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C20" r:id="rId1" xr:uid="{1D348FDF-3BAD-47AD-911A-9D45F455CD20}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -769,13 +788,13 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="28.5546875" customWidth="1"/>
-    <col min="3" max="3" width="45.5546875" customWidth="1"/>
+    <col min="1" max="2" width="28.54296875" customWidth="1"/>
+    <col min="3" max="3" width="45.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -800,14 +819,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="41.88671875" customWidth="1"/>
-    <col min="3" max="3" width="64.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.36328125" customWidth="1"/>
+    <col min="2" max="2" width="41.90625" customWidth="1"/>
+    <col min="3" max="3" width="64.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -818,7 +837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -829,7 +848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -840,7 +859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -851,7 +870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -862,7 +881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -873,7 +892,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -884,7 +903,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>25</v>
       </c>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPA_ROBOT1\Documents\UiPath\CreditSwitch\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDB3BD5-BB0F-4FD8-90E6-56585892342E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8276EBDE-6CFD-4401-8A88-27ED2434920F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="1344" windowWidth="17280" windowHeight="8916" xr2:uid="{533A41B4-224A-4779-A5C7-3E4B46218A92}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{533A41B4-224A-4779-A5C7-3E4B46218A92}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -183,7 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,14 +220,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -252,9 +244,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -275,10 +266,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -593,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6036370E-F23C-4C8F-95FD-ABF3B0AE06C5}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B24" activeCellId="1" sqref="C20 B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -708,8 +698,8 @@
       <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B20" t="s">
-        <v>41</v>
+      <c r="B20" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>49</v>
@@ -757,7 +747,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
@@ -772,11 +762,8 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C20" r:id="rId1" xr:uid="{1D348FDF-3BAD-47AD-911A-9D45F455CD20}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPA_ROBOT1\Documents\UiPath\CreditSwitch\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8276EBDE-6CFD-4401-8A88-27ED2434920F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49F1C85-7C0C-41D8-9397-A9873F30F5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{533A41B4-224A-4779-A5C7-3E4B46218A92}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -176,14 +176,17 @@
     <t>C:\Users\RPA_ROBOT1\Downloads</t>
   </si>
   <si>
-    <t>Rparobot1@sterling.ng</t>
+    <t>RPARobot1@sterling.ng</t>
+  </si>
+  <si>
+    <t>CreditSwitch_DriveDirectoryFolderPath</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +223,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -244,8 +255,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -266,9 +278,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -583,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6036370E-F23C-4C8F-95FD-ABF3B0AE06C5}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B24" activeCellId="1" sqref="C20 B24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -707,7 +720,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
@@ -715,7 +728,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
@@ -723,7 +736,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>47</v>
@@ -731,7 +744,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>46</v>
@@ -739,7 +752,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>48</v>
@@ -762,8 +775,12 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B20" r:id="rId1" xr:uid="{3A4FABF7-C6E6-43A7-8742-016F13CF17C8}"/>
+    <hyperlink ref="C20" r:id="rId2" xr:uid="{81E8B77B-BF12-4DFE-BE03-C029A15FEC2B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPA_ROBOT1\Documents\UiPath\CreditSwitch\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\UiPath\CREDIT SWITCH\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49F1C85-7C0C-41D8-9397-A9873F30F5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D1D977-3B80-4F9F-9529-64D990648E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{533A41B4-224A-4779-A5C7-3E4B46218A92}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -167,9 +167,6 @@
     <t>Sharepoint_Credentials</t>
   </si>
   <si>
-    <t>C:\Users\RPA_ROBOT1\Documents\CreditSwitch_Reconcillation\CreditSwitch_ExternalConfig.xlsx</t>
-  </si>
-  <si>
     <t>C:\Users\RPA_ROBOT1\Documents</t>
   </si>
   <si>
@@ -180,6 +177,18 @@
   </si>
   <si>
     <t>CreditSwitch_DriveDirectoryFolderPath</t>
+  </si>
+  <si>
+    <t>C:\Users\USER\Documents\Bot_WorkDirectory\CreditSwitch_Reconcillation\CreditSwitch_ExternalConfig.xlsx</t>
+  </si>
+  <si>
+    <t>sbakare@wajesmart.com;sodtech4u@gmail.com</t>
+  </si>
+  <si>
+    <t>C:\Users\USER\Downloads</t>
+  </si>
+  <si>
+    <t>C:\Users\USER\Documents\Bot_WorkDirectory</t>
   </si>
 </sst>
 </file>
@@ -259,7 +268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -278,7 +287,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -597,17 +607,17 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="40.453125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="37.6328125" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,14 +628,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>34</v>
       </c>
@@ -634,7 +644,7 @@
       </c>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>44</v>
       </c>
@@ -643,14 +653,14 @@
       </c>
       <c r="C4" s="7"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -658,14 +668,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -673,7 +683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -681,10 +691,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C13" s="6"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -692,7 +702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -700,65 +710,74 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>49</v>
+      <c r="B20" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B21" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B22" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -766,7 +785,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -776,11 +795,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1" xr:uid="{3A4FABF7-C6E6-43A7-8742-016F13CF17C8}"/>
-    <hyperlink ref="C20" r:id="rId2" xr:uid="{81E8B77B-BF12-4DFE-BE03-C029A15FEC2B}"/>
+    <hyperlink ref="C20" r:id="rId1" xr:uid="{60C38CA0-3D9D-4D34-89E0-79EBB1D7ACE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -792,13 +810,13 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="28.54296875" customWidth="1"/>
-    <col min="3" max="3" width="45.54296875" customWidth="1"/>
+    <col min="1" max="2" width="28.5546875" customWidth="1"/>
+    <col min="3" max="3" width="45.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -823,14 +841,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.36328125" customWidth="1"/>
-    <col min="2" max="2" width="41.90625" customWidth="1"/>
-    <col min="3" max="3" width="64.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="41.88671875" customWidth="1"/>
+    <col min="3" max="3" width="64.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -841,7 +859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -852,7 +870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -863,7 +881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -874,7 +892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -885,7 +903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -896,7 +914,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -907,7 +925,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\UiPath\CREDIT SWITCH\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RPA_ROBOT1\Documents\UiPath\CreditSwitch\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D1D977-3B80-4F9F-9529-64D990648E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938D6B3B-BDD1-4595-9425-AD718BEAF261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{533A41B4-224A-4779-A5C7-3E4B46218A92}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -173,22 +173,25 @@
     <t>C:\Users\RPA_ROBOT1\Downloads</t>
   </si>
   <si>
+    <t>CreditSwitch_DriveDirectoryFolderPath</t>
+  </si>
+  <si>
+    <t>C:\Users\USER\Documents\Bot_WorkDirectory\CreditSwitch_Reconcillation\CreditSwitch_ExternalConfig.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\USER\Downloads</t>
+  </si>
+  <si>
+    <t>sbakare@wajesmart.com;Ebunola.Salawu@sterling.ng;Oluwasijibomi.Oluwayose@sterling.ng;KONYEHI.EWIWILE@sterling.ng;sjimoh@wajesmart.com;oajigbayi@wajesmart.com</t>
+  </si>
+  <si>
+    <t>RobotEmailAddress11</t>
+  </si>
+  <si>
+    <t>C:\Users\RPA_ROBOT1\Documents\CreditSwitch_Reconcillation\CreditSwitch_ExternalConfig.xlsx</t>
+  </si>
+  <si>
     <t>RPARobot1@sterling.ng</t>
-  </si>
-  <si>
-    <t>CreditSwitch_DriveDirectoryFolderPath</t>
-  </si>
-  <si>
-    <t>C:\Users\USER\Documents\Bot_WorkDirectory\CreditSwitch_Reconcillation\CreditSwitch_ExternalConfig.xlsx</t>
-  </si>
-  <si>
-    <t>sbakare@wajesmart.com;sodtech4u@gmail.com</t>
-  </si>
-  <si>
-    <t>C:\Users\USER\Downloads</t>
-  </si>
-  <si>
-    <t>C:\Users\USER\Documents\Bot_WorkDirectory</t>
   </si>
 </sst>
 </file>
@@ -268,7 +271,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -288,7 +291,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -604,20 +606,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6036370E-F23C-4C8F-95FD-ABF3B0AE06C5}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="40.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.453125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="37.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -628,14 +630,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>34</v>
       </c>
@@ -644,7 +646,7 @@
       </c>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>44</v>
       </c>
@@ -653,14 +655,14 @@
       </c>
       <c r="C4" s="7"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -668,14 +670,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -683,7 +685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -691,10 +693,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C13" s="6"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -702,7 +704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -710,95 +712,95 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="5" t="s">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
         <v>50</v>
       </c>
-      <c r="C24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>43</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C20" r:id="rId1" xr:uid="{60C38CA0-3D9D-4D34-89E0-79EBB1D7ACE1}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -810,13 +812,13 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="28.5546875" customWidth="1"/>
-    <col min="3" max="3" width="45.5546875" customWidth="1"/>
+    <col min="1" max="2" width="28.54296875" customWidth="1"/>
+    <col min="3" max="3" width="45.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -841,14 +843,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="41.88671875" customWidth="1"/>
-    <col min="3" max="3" width="64.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.36328125" customWidth="1"/>
+    <col min="2" max="2" width="41.90625" customWidth="1"/>
+    <col min="3" max="3" width="64.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -859,7 +861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -870,7 +872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -881,7 +883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -892,7 +894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -903,7 +905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -914,7 +916,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -925,7 +927,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>25</v>
       </c>
